--- a/interview.xlsx
+++ b/interview.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="78">
   <si>
     <t> Move Zeroes</t>
   </si>
@@ -657,9 +657,9 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,7 +670,7 @@
     <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13.21875" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -885,13 +885,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="4">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>57</v>
+        <v>4</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
       </c>
       <c r="G13" t="s">
         <v>57</v>
@@ -899,19 +896,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="4">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" t="s">
-        <v>57</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
       </c>
       <c r="G14" t="s">
         <v>57</v>
@@ -919,83 +910,59 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="4">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>57</v>
+        <v>20</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="4">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" t="s">
-        <v>57</v>
+        <v>22</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="4">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" t="s">
-        <v>57</v>
+        <v>44</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="4">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" t="s">
-        <v>57</v>
+        <v>51</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>70</v>
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
       </c>
       <c r="C19" s="4">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" t="s">
         <v>57</v>
       </c>
       <c r="G19" t="s">
@@ -1004,10 +971,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>72</v>
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
       </c>
       <c r="C20" s="4">
         <v>2</v>
@@ -1016,34 +983,37 @@
         <v>57</v>
       </c>
       <c r="E20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" t="s">
-        <v>18</v>
+        <v>32</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C21" s="4">
         <v>2</v>
       </c>
-      <c r="G21" t="s">
+      <c r="D21" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
+        <v>33</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C22" s="4">
         <v>2</v>
       </c>
-      <c r="E22" t="s">
+      <c r="D22" t="s">
         <v>57</v>
       </c>
       <c r="G22" t="s">
@@ -1052,46 +1022,55 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="5">
-        <v>3</v>
+        <v>52</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2</v>
       </c>
       <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="5">
-        <v>3</v>
+        <v>76</v>
+      </c>
+      <c r="C24" s="4">
+        <v>2</v>
       </c>
       <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="5">
-        <v>3</v>
+        <v>70</v>
+      </c>
+      <c r="C25" s="4">
+        <v>2</v>
       </c>
       <c r="D25" t="s">
         <v>57</v>
       </c>
       <c r="E25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1100,10 +1079,10 @@
         <v>68</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="5">
-        <v>3</v>
+        <v>72</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2</v>
       </c>
       <c r="D26" t="s">
         <v>57</v>
@@ -1114,188 +1093,263 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="4">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>24</v>
+      </c>
+      <c r="C28" s="4">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>13</v>
       </c>
-      <c r="B29" t="s">
-        <v>6</v>
+      <c r="B29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>13</v>
       </c>
-      <c r="B30" t="s">
-        <v>7</v>
+      <c r="B30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="4">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" t="s">
-        <v>19</v>
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="4">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" t="s">
-        <v>27</v>
-      </c>
-      <c r="F38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="4">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" t="s">
-        <v>31</v>
+        <v>50</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="4">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" t="s">
-        <v>30</v>
-      </c>
-      <c r="E40" t="s">
-        <v>57</v>
+        <v>50</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" t="s">
-        <v>36</v>
+        <v>50</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" t="s">
-        <v>37</v>
+        <v>50</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="4">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" t="s">
-        <v>39</v>
+        <v>69</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" t="s">
-        <v>40</v>
+        <v>69</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="4">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" t="s">
-        <v>57</v>
+        <v>69</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" t="s">
-        <v>44</v>
+        <v>69</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="4">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" t="s">
-        <v>46</v>
+        <v>68</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="4">
+        <v>2</v>
       </c>
       <c r="E47" t="s">
         <v>57</v>
@@ -1303,26 +1357,44 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" t="s">
-        <v>47</v>
+        <v>33</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="5">
+        <v>3</v>
+      </c>
+      <c r="D48" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>50</v>
       </c>
-      <c r="B49" t="s">
-        <v>48</v>
+      <c r="B49" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="5">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" t="s">
-        <v>49</v>
+        <v>69</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="5">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>57</v>
       </c>
       <c r="E50" t="s">
         <v>57</v>
@@ -1330,110 +1402,149 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" t="s">
-        <v>51</v>
+        <v>68</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="5">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52" t="s">
-        <v>53</v>
+        <v>13</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" t="s">
-        <v>54</v>
+        <v>13</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="5">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>69</v>
-      </c>
-      <c r="B54" t="s">
-        <v>62</v>
-      </c>
-      <c r="E54" t="s">
-        <v>57</v>
+        <v>33</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>69</v>
-      </c>
-      <c r="B55" t="s">
-        <v>63</v>
+        <v>33</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>69</v>
-      </c>
-      <c r="B56" t="s">
-        <v>64</v>
-      </c>
-      <c r="E56" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>69</v>
-      </c>
-      <c r="B57" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>69</v>
       </c>
-      <c r="B58" t="s">
-        <v>66</v>
+      <c r="B58" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="5">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>69</v>
       </c>
-      <c r="B59" t="s">
-        <v>67</v>
-      </c>
-      <c r="E59" t="s">
-        <v>57</v>
+      <c r="B59" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>68</v>
       </c>
-      <c r="B60" t="s">
-        <v>71</v>
-      </c>
-      <c r="E60" t="s">
-        <v>57</v>
+      <c r="B60" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>68</v>
       </c>
-      <c r="B61" t="s">
-        <v>74</v>
+      <c r="B61" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>28</v>
+      </c>
+      <c r="D62" t="s">
+        <v>57</v>
+      </c>
+      <c r="E62" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1443,20 +1554,54 @@
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1"/>
-    <hyperlink ref="B15" r:id="rId2"/>
-    <hyperlink ref="B23" r:id="rId3"/>
+    <hyperlink ref="B22" r:id="rId1"/>
+    <hyperlink ref="B21" r:id="rId2"/>
+    <hyperlink ref="B48" r:id="rId3"/>
     <hyperlink ref="B9" r:id="rId4"/>
-    <hyperlink ref="B24" r:id="rId5"/>
-    <hyperlink ref="B17" r:id="rId6"/>
+    <hyperlink ref="B49" r:id="rId5"/>
+    <hyperlink ref="B23" r:id="rId6"/>
     <hyperlink ref="B10" r:id="rId7"/>
-    <hyperlink ref="B25" r:id="rId8"/>
-    <hyperlink ref="B18" r:id="rId9"/>
-    <hyperlink ref="B19" r:id="rId10"/>
-    <hyperlink ref="B20" r:id="rId11"/>
-    <hyperlink ref="B26" r:id="rId12"/>
+    <hyperlink ref="B50" r:id="rId8"/>
+    <hyperlink ref="B24" r:id="rId9"/>
+    <hyperlink ref="B25" r:id="rId10"/>
+    <hyperlink ref="B26" r:id="rId11"/>
+    <hyperlink ref="B51" r:id="rId12"/>
+    <hyperlink ref="B29" r:id="rId13"/>
+    <hyperlink ref="B52" r:id="rId14"/>
+    <hyperlink ref="B30" r:id="rId15"/>
+    <hyperlink ref="B14" r:id="rId16"/>
+    <hyperlink ref="B53" r:id="rId17"/>
+    <hyperlink ref="B31" r:id="rId18"/>
+    <hyperlink ref="B15" r:id="rId19"/>
+    <hyperlink ref="B32" r:id="rId20"/>
+    <hyperlink ref="B16" r:id="rId21"/>
+    <hyperlink ref="B33" r:id="rId22"/>
+    <hyperlink ref="B34" r:id="rId23"/>
+    <hyperlink ref="B35" r:id="rId24"/>
+    <hyperlink ref="B36" r:id="rId25"/>
+    <hyperlink ref="B37" r:id="rId26"/>
+    <hyperlink ref="B54" r:id="rId27"/>
+    <hyperlink ref="B55" r:id="rId28"/>
+    <hyperlink ref="B38" r:id="rId29"/>
+    <hyperlink ref="B17" r:id="rId30"/>
+    <hyperlink ref="B39" r:id="rId31"/>
+    <hyperlink ref="B40" r:id="rId32"/>
+    <hyperlink ref="B41" r:id="rId33"/>
+    <hyperlink ref="B42" r:id="rId34"/>
+    <hyperlink ref="B18" r:id="rId35"/>
+    <hyperlink ref="B56" r:id="rId36"/>
+    <hyperlink ref="B57" r:id="rId37"/>
+    <hyperlink ref="B58" r:id="rId38"/>
+    <hyperlink ref="B43" r:id="rId39"/>
+    <hyperlink ref="B44" r:id="rId40"/>
+    <hyperlink ref="B45" r:id="rId41"/>
+    <hyperlink ref="B59" r:id="rId42"/>
+    <hyperlink ref="B46" r:id="rId43"/>
+    <hyperlink ref="B47" r:id="rId44"/>
+    <hyperlink ref="B60" r:id="rId45"/>
+    <hyperlink ref="B61" r:id="rId46"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId47"/>
 </worksheet>
 </file>
--- a/interview.xlsx
+++ b/interview.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="79">
   <si>
     <t> Move Zeroes</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Array and Strings</t>
   </si>
   <si>
-    <t>Solved</t>
-  </si>
-  <si>
     <t>Reviewed</t>
   </si>
   <si>
@@ -261,6 +258,12 @@
   </si>
   <si>
     <t>Level</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Need to review again</t>
   </si>
 </sst>
 </file>
@@ -659,7 +662,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,10 +670,11 @@
     <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.21875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="5" max="5" width="17" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="19" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -681,22 +685,22 @@
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -710,10 +714,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -727,44 +734,53 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="H3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="H4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="H5" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -778,10 +794,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="H6" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -795,89 +814,104 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="H9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="H11" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="H12" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -891,40 +925,52 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="H13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="H14" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -932,10 +978,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -943,10 +989,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -963,163 +1009,163 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
         <v>33</v>
       </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
       <c r="C20" s="4">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="4">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="4">
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="4">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" s="4">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" s="4">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="4">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="4">
         <v>2</v>
       </c>
       <c r="G27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="4">
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1146,10 +1192,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="4">
         <v>2</v>
@@ -1157,10 +1203,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C32" s="4">
         <v>2</v>
@@ -1168,24 +1214,24 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" s="4">
         <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" s="4">
         <v>2</v>
@@ -1193,24 +1239,24 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35" s="4">
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="4">
         <v>2</v>
@@ -1218,10 +1264,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="4">
         <v>2</v>
@@ -1229,38 +1275,38 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38" s="4">
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39" s="4">
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" s="4">
         <v>2</v>
@@ -1268,10 +1314,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41" s="4">
         <v>2</v>
@@ -1279,24 +1325,24 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42" s="4">
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C43" s="4">
         <v>2</v>
@@ -1304,24 +1350,24 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C44" s="4">
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C45" s="4">
         <v>2</v>
@@ -1329,92 +1375,92 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" s="4">
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47" s="4">
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="5">
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C49" s="5">
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C50" s="5">
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C51" s="5">
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1439,15 +1485,15 @@
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C54" s="5">
         <v>3</v>
@@ -1455,10 +1501,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C55" s="5">
         <v>3</v>
@@ -1466,10 +1512,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C56" s="5">
         <v>3</v>
@@ -1477,10 +1523,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C57" s="5">
         <v>3</v>
@@ -1488,24 +1534,24 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C58" s="5">
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C59" s="5">
         <v>3</v>
@@ -1513,10 +1559,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C60" s="5">
         <v>3</v>
@@ -1524,10 +1570,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C61" s="5">
         <v>3</v>
@@ -1535,21 +1581,21 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1">
-    <sortState ref="A2:H62">
+  <autoFilter ref="A1:G1">
+    <sortState ref="A2:G62">
       <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
@@ -1557,51 +1603,48 @@
     <hyperlink ref="B22" r:id="rId1"/>
     <hyperlink ref="B21" r:id="rId2"/>
     <hyperlink ref="B48" r:id="rId3"/>
-    <hyperlink ref="B9" r:id="rId4"/>
-    <hyperlink ref="B49" r:id="rId5"/>
-    <hyperlink ref="B23" r:id="rId6"/>
-    <hyperlink ref="B10" r:id="rId7"/>
-    <hyperlink ref="B50" r:id="rId8"/>
-    <hyperlink ref="B24" r:id="rId9"/>
-    <hyperlink ref="B25" r:id="rId10"/>
-    <hyperlink ref="B26" r:id="rId11"/>
-    <hyperlink ref="B51" r:id="rId12"/>
-    <hyperlink ref="B29" r:id="rId13"/>
-    <hyperlink ref="B52" r:id="rId14"/>
-    <hyperlink ref="B30" r:id="rId15"/>
-    <hyperlink ref="B14" r:id="rId16"/>
-    <hyperlink ref="B53" r:id="rId17"/>
-    <hyperlink ref="B31" r:id="rId18"/>
-    <hyperlink ref="B15" r:id="rId19"/>
-    <hyperlink ref="B32" r:id="rId20"/>
-    <hyperlink ref="B16" r:id="rId21"/>
-    <hyperlink ref="B33" r:id="rId22"/>
-    <hyperlink ref="B34" r:id="rId23"/>
-    <hyperlink ref="B35" r:id="rId24"/>
-    <hyperlink ref="B36" r:id="rId25"/>
-    <hyperlink ref="B37" r:id="rId26"/>
-    <hyperlink ref="B54" r:id="rId27"/>
-    <hyperlink ref="B55" r:id="rId28"/>
-    <hyperlink ref="B38" r:id="rId29"/>
-    <hyperlink ref="B17" r:id="rId30"/>
-    <hyperlink ref="B39" r:id="rId31"/>
-    <hyperlink ref="B40" r:id="rId32"/>
-    <hyperlink ref="B41" r:id="rId33"/>
-    <hyperlink ref="B42" r:id="rId34"/>
-    <hyperlink ref="B18" r:id="rId35"/>
-    <hyperlink ref="B56" r:id="rId36"/>
-    <hyperlink ref="B57" r:id="rId37"/>
-    <hyperlink ref="B58" r:id="rId38"/>
-    <hyperlink ref="B43" r:id="rId39"/>
-    <hyperlink ref="B44" r:id="rId40"/>
-    <hyperlink ref="B45" r:id="rId41"/>
-    <hyperlink ref="B59" r:id="rId42"/>
-    <hyperlink ref="B46" r:id="rId43"/>
-    <hyperlink ref="B47" r:id="rId44"/>
-    <hyperlink ref="B60" r:id="rId45"/>
-    <hyperlink ref="B61" r:id="rId46"/>
+    <hyperlink ref="B49" r:id="rId4"/>
+    <hyperlink ref="B23" r:id="rId5"/>
+    <hyperlink ref="B10" r:id="rId6"/>
+    <hyperlink ref="B50" r:id="rId7"/>
+    <hyperlink ref="B24" r:id="rId8"/>
+    <hyperlink ref="B25" r:id="rId9"/>
+    <hyperlink ref="B26" r:id="rId10"/>
+    <hyperlink ref="B51" r:id="rId11"/>
+    <hyperlink ref="B29" r:id="rId12"/>
+    <hyperlink ref="B52" r:id="rId13"/>
+    <hyperlink ref="B30" r:id="rId14"/>
+    <hyperlink ref="B53" r:id="rId15"/>
+    <hyperlink ref="B31" r:id="rId16"/>
+    <hyperlink ref="B32" r:id="rId17"/>
+    <hyperlink ref="B16" r:id="rId18"/>
+    <hyperlink ref="B33" r:id="rId19"/>
+    <hyperlink ref="B34" r:id="rId20"/>
+    <hyperlink ref="B35" r:id="rId21"/>
+    <hyperlink ref="B36" r:id="rId22"/>
+    <hyperlink ref="B37" r:id="rId23"/>
+    <hyperlink ref="B54" r:id="rId24"/>
+    <hyperlink ref="B55" r:id="rId25"/>
+    <hyperlink ref="B38" r:id="rId26"/>
+    <hyperlink ref="B17" r:id="rId27"/>
+    <hyperlink ref="B39" r:id="rId28"/>
+    <hyperlink ref="B40" r:id="rId29"/>
+    <hyperlink ref="B41" r:id="rId30"/>
+    <hyperlink ref="B42" r:id="rId31"/>
+    <hyperlink ref="B18" r:id="rId32"/>
+    <hyperlink ref="B56" r:id="rId33"/>
+    <hyperlink ref="B57" r:id="rId34"/>
+    <hyperlink ref="B58" r:id="rId35"/>
+    <hyperlink ref="B43" r:id="rId36"/>
+    <hyperlink ref="B44" r:id="rId37"/>
+    <hyperlink ref="B45" r:id="rId38"/>
+    <hyperlink ref="B59" r:id="rId39"/>
+    <hyperlink ref="B46" r:id="rId40"/>
+    <hyperlink ref="B47" r:id="rId41"/>
+    <hyperlink ref="B60" r:id="rId42"/>
+    <hyperlink ref="B61" r:id="rId43"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId47"/>
+  <pageSetup orientation="portrait" r:id="rId44"/>
 </worksheet>
 </file>
--- a/interview.xlsx
+++ b/interview.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="78">
   <si>
     <t> Move Zeroes</t>
   </si>
@@ -261,9 +261,6 @@
   </si>
   <si>
     <t>Note</t>
-  </si>
-  <si>
-    <t>Need to review again</t>
   </si>
 </sst>
 </file>
@@ -662,7 +659,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,7 +671,7 @@
     <col min="5" max="5" width="17" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="19" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -719,9 +716,6 @@
       <c r="G2" t="s">
         <v>56</v>
       </c>
-      <c r="H2" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -739,16 +733,13 @@
       <c r="G3" t="s">
         <v>56</v>
       </c>
-      <c r="H3" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -758,17 +749,14 @@
       </c>
       <c r="G4" t="s">
         <v>56</v>
-      </c>
-      <c r="H4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -778,29 +766,20 @@
       </c>
       <c r="G5" t="s">
         <v>56</v>
-      </c>
-      <c r="H5" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>2</v>
+      <c r="B6" t="s">
+        <v>4</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>56</v>
-      </c>
       <c r="G6" t="s">
         <v>56</v>
-      </c>
-      <c r="H6" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -808,27 +787,21 @@
         <v>13</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
-        <v>56</v>
-      </c>
       <c r="G7" t="s">
         <v>56</v>
-      </c>
-      <c r="H7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -838,122 +811,107 @@
       </c>
       <c r="G8" t="s">
         <v>56</v>
-      </c>
-      <c r="H8" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
-        <v>56</v>
-      </c>
       <c r="G9" t="s">
         <v>56</v>
-      </c>
-      <c r="H9" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>15</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
+        <v>49</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
       <c r="G11" t="s">
         <v>56</v>
-      </c>
-      <c r="H11" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
+        <v>49</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
       <c r="G12" t="s">
         <v>56</v>
-      </c>
-      <c r="H12" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
+        <v>49</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="G13" t="s">
         <v>56</v>
-      </c>
-      <c r="H13" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>9</v>
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
       <c r="G14" t="s">
         <v>56</v>
-      </c>
-      <c r="H14" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -962,29 +920,38 @@
         <v>56</v>
       </c>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1037,24 +1004,27 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C21" s="4">
         <v>2</v>
       </c>
       <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C22" s="4">
         <v>2</v>
@@ -1068,16 +1038,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
       </c>
       <c r="C23" s="4">
         <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>56</v>
       </c>
       <c r="G23" t="s">
         <v>56</v>
@@ -1122,58 +1089,49 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>71</v>
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
       </c>
       <c r="C26" s="4">
         <v>2</v>
       </c>
-      <c r="D26" t="s">
-        <v>56</v>
-      </c>
       <c r="E26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C27" s="4">
         <v>2</v>
-      </c>
-      <c r="G27" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C28" s="4">
         <v>2</v>
-      </c>
-      <c r="E28" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C29" s="4">
         <v>2</v>
@@ -1181,10 +1139,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C30" s="4">
         <v>2</v>
@@ -1192,10 +1150,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="C31" s="4">
         <v>2</v>
@@ -1203,60 +1161,60 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="C32" s="4">
         <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C33" s="4">
         <v>2</v>
-      </c>
-      <c r="F33" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="C34" s="4">
         <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C35" s="4">
         <v>2</v>
-      </c>
-      <c r="E35" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C36" s="4">
         <v>2</v>
@@ -1264,21 +1222,27 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="C37" s="4">
         <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="C38" s="4">
         <v>2</v>
@@ -1292,7 +1256,7 @@
         <v>49</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C39" s="4">
         <v>2</v>
@@ -1306,10 +1270,13 @@
         <v>49</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="4">
         <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1317,7 +1284,7 @@
         <v>49</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" s="4">
         <v>2</v>
@@ -1328,71 +1295,71 @@
         <v>49</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="4">
         <v>2</v>
-      </c>
-      <c r="E42" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C43" s="4">
         <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="C44" s="4">
         <v>2</v>
       </c>
-      <c r="E44" t="s">
+      <c r="D44" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="C45" s="4">
         <v>2</v>
+      </c>
+      <c r="F45" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="C46" s="4">
         <v>2</v>
-      </c>
-      <c r="E46" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="C47" s="4">
         <v>2</v>
@@ -1403,38 +1370,35 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="C48" s="5">
         <v>3</v>
       </c>
-      <c r="D48" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C49" s="5">
         <v>3</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C50" s="5">
         <v>3</v>
@@ -1442,33 +1406,24 @@
       <c r="D50" t="s">
         <v>56</v>
       </c>
-      <c r="E50" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="C51" s="5">
         <v>3</v>
       </c>
-      <c r="D51" t="s">
-        <v>56</v>
-      </c>
-      <c r="E51" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C52" s="5">
         <v>3</v>
@@ -1476,35 +1431,41 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C53" s="5">
         <v>3</v>
       </c>
+      <c r="D53" t="s">
+        <v>56</v>
+      </c>
       <c r="E53" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C54" s="5">
         <v>3</v>
       </c>
+      <c r="E54" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="C55" s="5">
         <v>3</v>
@@ -1534,24 +1495,27 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C58" s="5">
         <v>3</v>
       </c>
+      <c r="D58" t="s">
+        <v>56</v>
+      </c>
       <c r="E58" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C59" s="5">
         <v>3</v>
@@ -1562,7 +1526,7 @@
         <v>67</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C60" s="5">
         <v>3</v>
@@ -1570,13 +1534,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="C61" s="5">
         <v>3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -1600,51 +1567,49 @@
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="B22" r:id="rId1"/>
-    <hyperlink ref="B21" r:id="rId2"/>
-    <hyperlink ref="B48" r:id="rId3"/>
-    <hyperlink ref="B49" r:id="rId4"/>
-    <hyperlink ref="B23" r:id="rId5"/>
-    <hyperlink ref="B10" r:id="rId6"/>
-    <hyperlink ref="B50" r:id="rId7"/>
+    <hyperlink ref="B21" r:id="rId1"/>
+    <hyperlink ref="B44" r:id="rId2"/>
+    <hyperlink ref="B50" r:id="rId3"/>
+    <hyperlink ref="B61" r:id="rId4"/>
+    <hyperlink ref="B22" r:id="rId5"/>
+    <hyperlink ref="B17" r:id="rId6"/>
+    <hyperlink ref="B53" r:id="rId7"/>
     <hyperlink ref="B24" r:id="rId8"/>
     <hyperlink ref="B25" r:id="rId9"/>
-    <hyperlink ref="B26" r:id="rId10"/>
-    <hyperlink ref="B51" r:id="rId11"/>
-    <hyperlink ref="B29" r:id="rId12"/>
-    <hyperlink ref="B52" r:id="rId13"/>
-    <hyperlink ref="B30" r:id="rId14"/>
-    <hyperlink ref="B53" r:id="rId15"/>
-    <hyperlink ref="B31" r:id="rId16"/>
-    <hyperlink ref="B32" r:id="rId17"/>
-    <hyperlink ref="B16" r:id="rId18"/>
-    <hyperlink ref="B33" r:id="rId19"/>
-    <hyperlink ref="B34" r:id="rId20"/>
-    <hyperlink ref="B35" r:id="rId21"/>
-    <hyperlink ref="B36" r:id="rId22"/>
-    <hyperlink ref="B37" r:id="rId23"/>
-    <hyperlink ref="B54" r:id="rId24"/>
-    <hyperlink ref="B55" r:id="rId25"/>
-    <hyperlink ref="B38" r:id="rId26"/>
-    <hyperlink ref="B17" r:id="rId27"/>
-    <hyperlink ref="B39" r:id="rId28"/>
-    <hyperlink ref="B40" r:id="rId29"/>
-    <hyperlink ref="B41" r:id="rId30"/>
-    <hyperlink ref="B42" r:id="rId31"/>
-    <hyperlink ref="B18" r:id="rId32"/>
-    <hyperlink ref="B56" r:id="rId33"/>
-    <hyperlink ref="B57" r:id="rId34"/>
-    <hyperlink ref="B58" r:id="rId35"/>
-    <hyperlink ref="B43" r:id="rId36"/>
-    <hyperlink ref="B44" r:id="rId37"/>
-    <hyperlink ref="B45" r:id="rId38"/>
-    <hyperlink ref="B59" r:id="rId39"/>
-    <hyperlink ref="B46" r:id="rId40"/>
-    <hyperlink ref="B47" r:id="rId41"/>
-    <hyperlink ref="B60" r:id="rId42"/>
-    <hyperlink ref="B61" r:id="rId43"/>
+    <hyperlink ref="B37" r:id="rId10"/>
+    <hyperlink ref="B58" r:id="rId11"/>
+    <hyperlink ref="B27" r:id="rId12"/>
+    <hyperlink ref="B48" r:id="rId13"/>
+    <hyperlink ref="B28" r:id="rId14"/>
+    <hyperlink ref="B49" r:id="rId15"/>
+    <hyperlink ref="B35" r:id="rId16"/>
+    <hyperlink ref="B36" r:id="rId17"/>
+    <hyperlink ref="B45" r:id="rId18"/>
+    <hyperlink ref="B46" r:id="rId19"/>
+    <hyperlink ref="B47" r:id="rId20"/>
+    <hyperlink ref="B29" r:id="rId21"/>
+    <hyperlink ref="B30" r:id="rId22"/>
+    <hyperlink ref="B51" r:id="rId23"/>
+    <hyperlink ref="B52" r:id="rId24"/>
+    <hyperlink ref="B39" r:id="rId25"/>
+    <hyperlink ref="B40" r:id="rId26"/>
+    <hyperlink ref="B41" r:id="rId27"/>
+    <hyperlink ref="B42" r:id="rId28"/>
+    <hyperlink ref="B43" r:id="rId29"/>
+    <hyperlink ref="B18" r:id="rId30"/>
+    <hyperlink ref="B56" r:id="rId31"/>
+    <hyperlink ref="B57" r:id="rId32"/>
+    <hyperlink ref="B54" r:id="rId33"/>
+    <hyperlink ref="B31" r:id="rId34"/>
+    <hyperlink ref="B32" r:id="rId35"/>
+    <hyperlink ref="B33" r:id="rId36"/>
+    <hyperlink ref="B55" r:id="rId37"/>
+    <hyperlink ref="B34" r:id="rId38"/>
+    <hyperlink ref="B38" r:id="rId39"/>
+    <hyperlink ref="B59" r:id="rId40"/>
+    <hyperlink ref="B60" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId44"/>
+  <pageSetup orientation="portrait" r:id="rId42"/>
 </worksheet>
 </file>
--- a/interview.xlsx
+++ b/interview.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\591159\Desktop\algo\+Problems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\591159\Desktop\algo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="107">
   <si>
     <t>Title</t>
   </si>
@@ -746,9 +746,9 @@
   <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L50" sqref="A50:L50"/>
+      <selection pane="bottomLeft" activeCell="L15" sqref="L15:L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -760,8 +760,9 @@
     <col min="6" max="6" width="6" customWidth="1"/>
     <col min="7" max="7" width="17" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="19" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" customWidth="1"/>
+    <col min="9" max="9" width="5.88671875" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -803,437 +804,395 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>96</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C20" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="4">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="4">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="4">
-        <v>2</v>
-      </c>
-      <c r="I10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" s="4">
-        <v>2</v>
-      </c>
-      <c r="I11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="4">
-        <v>2</v>
-      </c>
-      <c r="G12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="4">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" s="4">
-        <v>2</v>
-      </c>
-      <c r="H15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="4">
-        <v>2</v>
-      </c>
-      <c r="I16" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="4">
-        <v>2</v>
-      </c>
-      <c r="I17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="4">
-        <v>2</v>
-      </c>
-      <c r="G18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
@@ -1247,70 +1206,70 @@
     </row>
     <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
       <c r="E22" s="3">
         <v>1</v>
       </c>
-      <c r="F22" t="s">
-        <v>10</v>
-      </c>
       <c r="I22" t="s">
         <v>10</v>
       </c>
       <c r="J22" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>30</v>
+      <c r="A23" t="s">
+        <v>100</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
       </c>
+      <c r="C23" t="s">
+        <v>99</v>
+      </c>
       <c r="E23" s="3">
         <v>1</v>
       </c>
-      <c r="F23" t="s">
-        <v>10</v>
-      </c>
       <c r="I23" t="s">
         <v>10</v>
       </c>
       <c r="J23" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
       </c>
-      <c r="F24" t="s">
-        <v>10</v>
-      </c>
       <c r="I24" t="s">
         <v>10</v>
       </c>
       <c r="J24" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>16</v>
+      <c r="A25" t="s">
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>95</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
@@ -1319,15 +1278,15 @@
         <v>10</v>
       </c>
       <c r="J25" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>32</v>
+      <c r="A26" t="s">
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
@@ -1336,44 +1295,41 @@
         <v>10</v>
       </c>
       <c r="J26" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>44</v>
+      <c r="A27" t="s">
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
       </c>
       <c r="E27" s="3">
         <v>1</v>
       </c>
-      <c r="F27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" t="s">
-        <v>10</v>
-      </c>
       <c r="I27" t="s">
         <v>10</v>
       </c>
       <c r="J27" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2</v>
       </c>
       <c r="I28" t="s">
         <v>10</v>
@@ -1382,32 +1338,41 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>24</v>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
       </c>
       <c r="I29" t="s">
         <v>10</v>
       </c>
       <c r="J29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>55</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="4">
+        <v>2</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
@@ -1418,16 +1383,25 @@
       <c r="J30" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1</v>
+        <v>89</v>
+      </c>
+      <c r="C31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="4">
+        <v>2</v>
       </c>
       <c r="F31" t="s">
         <v>10</v>
@@ -1438,22 +1412,19 @@
       <c r="J31" t="s">
         <v>10</v>
       </c>
-      <c r="L31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="4">
+        <v>2</v>
       </c>
       <c r="I32" t="s">
         <v>10</v>
@@ -1461,16 +1432,25 @@
       <c r="J32" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="4">
+        <v>2</v>
       </c>
       <c r="I33" t="s">
         <v>10</v>
@@ -1479,32 +1459,41 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>22</v>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="4">
+        <v>2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>10</v>
       </c>
       <c r="I34" t="s">
         <v>10</v>
       </c>
       <c r="J34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>77</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="4">
+        <v>2</v>
       </c>
       <c r="F35" t="s">
         <v>10</v>
@@ -1516,15 +1505,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>79</v>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="3">
-        <v>1</v>
+      <c r="C36" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="4">
+        <v>2</v>
+      </c>
+      <c r="H36" t="s">
+        <v>10</v>
       </c>
       <c r="I36" t="s">
         <v>10</v>
@@ -1532,16 +1527,25 @@
       <c r="J36" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>78</v>
+      <c r="K36" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="3">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="4">
+        <v>2</v>
       </c>
       <c r="I37" t="s">
         <v>10</v>
@@ -1550,41 +1554,50 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>20</v>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="3">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="4">
+        <v>2</v>
       </c>
       <c r="I38" t="s">
         <v>10</v>
       </c>
       <c r="J38" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>25</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="4">
+        <v>2</v>
+      </c>
+      <c r="G39" t="s">
+        <v>10</v>
       </c>
       <c r="I39" t="s">
         <v>10</v>
       </c>
       <c r="J39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -1604,7 +1617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>33</v>
       </c>
@@ -1621,7 +1634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -1644,7 +1657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>38</v>
       </c>
@@ -1664,7 +1677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>39</v>
       </c>
@@ -1681,7 +1694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>40</v>
       </c>
@@ -1698,8 +1711,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B46" t="s">
@@ -1724,7 +1737,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>64</v>
       </c>
@@ -1747,8 +1760,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B48" t="s">
@@ -1776,7 +1789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>75</v>
       </c>
@@ -1799,7 +1812,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>23</v>
       </c>
@@ -1819,7 +1832,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -1836,7 +1849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>60</v>
       </c>
@@ -1853,7 +1866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>59</v>
       </c>
@@ -1870,7 +1883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>62</v>
       </c>
@@ -1893,8 +1906,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B55" t="s">
@@ -1916,7 +1929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>71</v>
       </c>
@@ -1933,7 +1946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>80</v>
       </c>
@@ -1983,6 +1996,9 @@
       <c r="G59" t="s">
         <v>10</v>
       </c>
+      <c r="I59" t="s">
+        <v>90</v>
+      </c>
       <c r="J59" t="s">
         <v>10</v>
       </c>
@@ -1997,6 +2013,9 @@
       <c r="E60" s="5">
         <v>3</v>
       </c>
+      <c r="I60" t="s">
+        <v>90</v>
+      </c>
       <c r="J60" t="s">
         <v>10</v>
       </c>
@@ -2011,6 +2030,9 @@
       <c r="E61" s="5">
         <v>3</v>
       </c>
+      <c r="I61" t="s">
+        <v>90</v>
+      </c>
       <c r="J61" t="s">
         <v>10</v>
       </c>
@@ -2028,6 +2050,9 @@
       <c r="F62" t="s">
         <v>10</v>
       </c>
+      <c r="I62" t="s">
+        <v>90</v>
+      </c>
       <c r="J62" t="s">
         <v>10</v>
       </c>
@@ -2042,6 +2067,9 @@
       <c r="E63" s="5">
         <v>3</v>
       </c>
+      <c r="I63" t="s">
+        <v>90</v>
+      </c>
       <c r="J63" t="s">
         <v>10</v>
       </c>
@@ -2056,6 +2084,9 @@
       <c r="E64" s="5">
         <v>3</v>
       </c>
+      <c r="I64" t="s">
+        <v>90</v>
+      </c>
       <c r="J64" t="s">
         <v>10</v>
       </c>
@@ -2076,6 +2107,9 @@
       <c r="G65" t="s">
         <v>10</v>
       </c>
+      <c r="I65" t="s">
+        <v>90</v>
+      </c>
       <c r="J65" t="s">
         <v>10</v>
       </c>
@@ -2093,6 +2127,9 @@
       <c r="G66" t="s">
         <v>10</v>
       </c>
+      <c r="I66" t="s">
+        <v>90</v>
+      </c>
       <c r="J66" t="s">
         <v>10</v>
       </c>
@@ -2107,6 +2144,9 @@
       <c r="E67" s="5">
         <v>3</v>
       </c>
+      <c r="I67" t="s">
+        <v>90</v>
+      </c>
       <c r="J67" t="s">
         <v>10</v>
       </c>
@@ -2121,6 +2161,9 @@
       <c r="E68" s="5">
         <v>3</v>
       </c>
+      <c r="I68" t="s">
+        <v>90</v>
+      </c>
       <c r="J68" t="s">
         <v>10</v>
       </c>
@@ -2141,6 +2184,9 @@
       <c r="G69" t="s">
         <v>10</v>
       </c>
+      <c r="I69" t="s">
+        <v>90</v>
+      </c>
       <c r="J69" t="s">
         <v>10</v>
       </c>
@@ -2155,6 +2201,9 @@
       <c r="E70" s="5">
         <v>3</v>
       </c>
+      <c r="I70" t="s">
+        <v>90</v>
+      </c>
       <c r="J70" t="s">
         <v>10</v>
       </c>
@@ -2169,6 +2218,9 @@
       <c r="E71" s="5">
         <v>3</v>
       </c>
+      <c r="I71" t="s">
+        <v>90</v>
+      </c>
       <c r="J71" t="s">
         <v>10</v>
       </c>
@@ -2186,6 +2238,9 @@
       <c r="F72" t="s">
         <v>10</v>
       </c>
+      <c r="I72" t="s">
+        <v>90</v>
+      </c>
       <c r="J72" t="s">
         <v>10</v>
       </c>
@@ -2202,6 +2257,9 @@
       </c>
       <c r="G73" t="s">
         <v>10</v>
+      </c>
+      <c r="I73" t="s">
+        <v>90</v>
       </c>
       <c r="J73" t="s">
         <v>10</v>
@@ -2211,33 +2269,35 @@
   <autoFilter ref="A1:L73">
     <filterColumn colId="8">
       <filters>
-        <filter val="INCOMPLETE"/>
+        <filter val="Yes"/>
       </filters>
     </filterColumn>
-    <sortState ref="A2:L73">
-      <sortCondition ref="C1:C73"/>
+    <filterColumn colId="9">
+      <filters>
+        <filter val="Yes"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A2:L58">
+      <sortCondition ref="E1:E73"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="A62" r:id="rId1" display=" Remove Invalid Parentheses"/>
     <hyperlink ref="A72" r:id="rId2" display=" Merge k Sorted Lists"/>
     <hyperlink ref="A65" r:id="rId3" display=" Read N Characters Given Read4 II - Call multiple times"/>
-    <hyperlink ref="A55" r:id="rId4" display=" Task Scheduler"/>
-    <hyperlink ref="A69" r:id="rId5" display=" Integer to English Words"/>
-    <hyperlink ref="A60" r:id="rId6" display=" Valid Number"/>
-    <hyperlink ref="A59" r:id="rId7" display=" Trapping Rain Water"/>
-    <hyperlink ref="A63" r:id="rId8" display=" Wildcard Matching"/>
-    <hyperlink ref="A61" r:id="rId9" display=" Regular Expression Matching"/>
-    <hyperlink ref="A48" r:id="rId10" display=" Meeting Rooms II"/>
-    <hyperlink ref="A68" r:id="rId11" display=" Minimum Window Subsequence"/>
-    <hyperlink ref="A67" r:id="rId12" display=" Maximum Sum of 3 Non-Overlapping Subarrays"/>
-    <hyperlink ref="A66" r:id="rId13" display=" Serialize and Deserialize Binary Tree"/>
-    <hyperlink ref="A64" r:id="rId14" display=" LRU Cache"/>
-    <hyperlink ref="A46" r:id="rId15" display=" Sparse Matrix Multiplication"/>
-    <hyperlink ref="A70" r:id="rId16" display=" Minimum Window Substring"/>
-    <hyperlink ref="A71" r:id="rId17" display=" Palindrome Pairs"/>
+    <hyperlink ref="A69" r:id="rId4" display=" Integer to English Words"/>
+    <hyperlink ref="A60" r:id="rId5" display=" Valid Number"/>
+    <hyperlink ref="A59" r:id="rId6" display=" Trapping Rain Water"/>
+    <hyperlink ref="A63" r:id="rId7" display=" Wildcard Matching"/>
+    <hyperlink ref="A61" r:id="rId8" display=" Regular Expression Matching"/>
+    <hyperlink ref="A68" r:id="rId9" display=" Minimum Window Subsequence"/>
+    <hyperlink ref="A67" r:id="rId10" display=" Maximum Sum of 3 Non-Overlapping Subarrays"/>
+    <hyperlink ref="A66" r:id="rId11" display=" Serialize and Deserialize Binary Tree"/>
+    <hyperlink ref="A64" r:id="rId12" display=" LRU Cache"/>
+    <hyperlink ref="A70" r:id="rId13" display=" Minimum Window Substring"/>
+    <hyperlink ref="A71" r:id="rId14" display=" Palindrome Pairs"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/interview.xlsx
+++ b/interview.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$73</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="110">
   <si>
     <t>Title</t>
   </si>
@@ -348,6 +348,15 @@
   </si>
   <si>
     <t>SubC2</t>
+  </si>
+  <si>
+    <t>String Builder</t>
+  </si>
+  <si>
+    <t>Repetition</t>
+  </si>
+  <si>
+    <t>Recursion</t>
   </si>
 </sst>
 </file>
@@ -425,8 +434,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -743,12 +752,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L15" sqref="L15:L34"/>
+      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -760,23 +769,23 @@
     <col min="6" max="6" width="6" customWidth="1"/>
     <col min="7" max="7" width="17" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="19" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="5.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.109375" customWidth="1"/>
     <col min="11" max="11" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -803,193 +812,214 @@
       <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>57</v>
+      <c r="M1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
         <v>87</v>
       </c>
-      <c r="D2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -997,21 +1027,15 @@
       <c r="F11" t="s">
         <v>10</v>
       </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
       <c r="I11" t="s">
         <v>10</v>
       </c>
       <c r="J11" t="s">
         <v>10</v>
       </c>
-      <c r="K11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B12" t="s">
@@ -1027,19 +1051,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>55</v>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" t="s">
+        <v>99</v>
+      </c>
       <c r="E13" s="3">
         <v>1</v>
       </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
       <c r="I13" t="s">
         <v>10</v>
       </c>
@@ -1047,55 +1074,46 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>68</v>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
       <c r="I14" t="s">
         <v>10</v>
       </c>
       <c r="J14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -1103,6 +1121,9 @@
       <c r="E16" s="3">
         <v>1</v>
       </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
       <c r="I16" t="s">
         <v>10</v>
       </c>
@@ -1111,18 +1132,15 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>77</v>
+      <c r="A17" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
       </c>
-      <c r="F17" t="s">
-        <v>10</v>
-      </c>
       <c r="I17" t="s">
         <v>10</v>
       </c>
@@ -1131,15 +1149,18 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>79</v>
+      <c r="A18" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
       </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
       <c r="I18" t="s">
         <v>10</v>
       </c>
@@ -1148,31 +1169,40 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>78</v>
+      <c r="A19" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
       </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
       <c r="I19" t="s">
         <v>10</v>
       </c>
       <c r="J19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>96</v>
+      <c r="K19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -1184,72 +1214,69 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>98</v>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" t="s">
         <v>7</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C24" t="s">
         <v>95</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="I21" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="I22" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="I23" t="s">
-        <v>10</v>
-      </c>
-      <c r="J23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>4</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -1261,15 +1288,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>22</v>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
@@ -1278,154 +1305,145 @@
         <v>10</v>
       </c>
       <c r="J25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="4">
+        <v>2</v>
+      </c>
+      <c r="I30" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="4">
+        <v>2</v>
+      </c>
+      <c r="I31" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="I26" t="s">
-        <v>10</v>
-      </c>
-      <c r="J26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-      <c r="I27" t="s">
-        <v>10</v>
-      </c>
-      <c r="J27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="4">
-        <v>2</v>
-      </c>
-      <c r="I28" t="s">
-        <v>10</v>
-      </c>
-      <c r="J28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="4">
-        <v>2</v>
-      </c>
-      <c r="G29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" s="4">
-        <v>2</v>
-      </c>
-      <c r="F30" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J30" t="s">
-        <v>10</v>
-      </c>
-      <c r="L30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31" t="s">
-        <v>103</v>
-      </c>
-      <c r="E31" s="4">
-        <v>2</v>
-      </c>
-      <c r="F31" t="s">
-        <v>10</v>
-      </c>
-      <c r="I31" t="s">
-        <v>10</v>
-      </c>
-      <c r="J31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" t="s">
-        <v>2</v>
-      </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="E32" s="4">
         <v>2</v>
       </c>
+      <c r="H32" t="s">
+        <v>10</v>
+      </c>
       <c r="I32" t="s">
         <v>10</v>
       </c>
@@ -1435,10 +1453,13 @@
       <c r="K32" t="s">
         <v>10</v>
       </c>
+      <c r="L32" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>83</v>
+      <c r="A33" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
@@ -1446,12 +1467,12 @@
       <c r="C33" t="s">
         <v>87</v>
       </c>
-      <c r="D33" t="s">
-        <v>104</v>
-      </c>
       <c r="E33" s="4">
         <v>2</v>
       </c>
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
       <c r="I33" t="s">
         <v>10</v>
       </c>
@@ -1460,8 +1481,8 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>84</v>
+      <c r="A34" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -1469,12 +1490,12 @@
       <c r="C34" t="s">
         <v>87</v>
       </c>
+      <c r="D34" t="s">
+        <v>104</v>
+      </c>
       <c r="E34" s="4">
         <v>2</v>
       </c>
-      <c r="G34" t="s">
-        <v>10</v>
-      </c>
       <c r="I34" t="s">
         <v>10</v>
       </c>
@@ -1483,42 +1504,45 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>61</v>
+      <c r="A35" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="B35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="4">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
         <v>12</v>
       </c>
-      <c r="C35" t="s">
-        <v>88</v>
-      </c>
-      <c r="E35" s="4">
-        <v>2</v>
-      </c>
-      <c r="F35" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" t="s">
-        <v>10</v>
-      </c>
-      <c r="J35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" t="s">
-        <v>102</v>
-      </c>
       <c r="E36" s="4">
         <v>2</v>
       </c>
-      <c r="H36" t="s">
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
         <v>10</v>
       </c>
       <c r="I36" t="s">
@@ -1527,69 +1551,60 @@
       <c r="J36" t="s">
         <v>10</v>
       </c>
-      <c r="K36" t="s">
-        <v>10</v>
-      </c>
-      <c r="L36" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="4">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" t="s">
+        <v>10</v>
+      </c>
+      <c r="J37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="4">
+        <v>2</v>
+      </c>
+      <c r="I38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="B37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" s="4">
-        <v>2</v>
-      </c>
-      <c r="I37" t="s">
-        <v>10</v>
-      </c>
-      <c r="J37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" t="s">
-        <v>91</v>
-      </c>
-      <c r="E38" s="4">
-        <v>2</v>
-      </c>
-      <c r="I38" t="s">
-        <v>10</v>
-      </c>
-      <c r="J38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="B39" t="s">
         <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="4">
         <v>2</v>
       </c>
-      <c r="G39" t="s">
-        <v>10</v>
-      </c>
       <c r="I39" t="s">
         <v>10</v>
       </c>
@@ -1598,11 +1613,14 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>27</v>
+      <c r="A40" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
+        <v>88</v>
       </c>
       <c r="E40" s="4">
         <v>2</v>
@@ -1618,357 +1636,366 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="4">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" t="s">
+        <v>10</v>
+      </c>
+      <c r="J41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="4">
+        <v>2</v>
+      </c>
+      <c r="I42" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="4">
+        <v>2</v>
+      </c>
+      <c r="I43" t="s">
+        <v>10</v>
+      </c>
+      <c r="J43" t="s">
+        <v>10</v>
+      </c>
+      <c r="K43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="4">
+        <v>2</v>
+      </c>
+      <c r="G44" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" t="s">
+        <v>10</v>
+      </c>
+      <c r="J44" t="s">
+        <v>10</v>
+      </c>
+      <c r="K44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="4">
+        <v>2</v>
+      </c>
+      <c r="I45" t="s">
+        <v>10</v>
+      </c>
+      <c r="J45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="4">
-        <v>2</v>
-      </c>
-      <c r="I41" t="s">
-        <v>10</v>
-      </c>
-      <c r="J41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="4">
+        <v>2</v>
+      </c>
+      <c r="I46" t="s">
+        <v>10</v>
+      </c>
+      <c r="J46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>97</v>
+      </c>
+      <c r="E47" s="4">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" t="s">
+        <v>10</v>
+      </c>
+      <c r="L47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" t="s">
         <v>6</v>
       </c>
-      <c r="E42" s="4">
-        <v>2</v>
-      </c>
-      <c r="F42" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" t="s">
-        <v>10</v>
-      </c>
-      <c r="J42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
+      <c r="E48" s="4">
+        <v>2</v>
+      </c>
+      <c r="I48" t="s">
+        <v>10</v>
+      </c>
+      <c r="J48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="4">
+        <v>2</v>
+      </c>
+      <c r="I49" t="s">
+        <v>10</v>
+      </c>
+      <c r="J49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="4">
+        <v>2</v>
+      </c>
+      <c r="I50" t="s">
+        <v>10</v>
+      </c>
+      <c r="J50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>95</v>
+      </c>
+      <c r="E51" s="4">
+        <v>2</v>
+      </c>
+      <c r="G51" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" t="s">
+        <v>10</v>
+      </c>
+      <c r="J51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" s="4">
+        <v>2</v>
+      </c>
+      <c r="I52" t="s">
+        <v>10</v>
+      </c>
+      <c r="J52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="4">
+        <v>2</v>
+      </c>
+      <c r="G53" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53" t="s">
+        <v>10</v>
+      </c>
+      <c r="J53" t="s">
+        <v>10</v>
+      </c>
+      <c r="L53" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="4">
+        <v>2</v>
+      </c>
+      <c r="I54" t="s">
+        <v>90</v>
+      </c>
+      <c r="J54" t="s">
+        <v>19</v>
+      </c>
+      <c r="L54" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="4">
+        <v>2</v>
+      </c>
+      <c r="G55" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J55" t="s">
+        <v>10</v>
+      </c>
+      <c r="K55" t="s">
+        <v>10</v>
+      </c>
+      <c r="L55" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B56" t="s">
         <v>6</v>
       </c>
-      <c r="E43" s="4">
-        <v>2</v>
-      </c>
-      <c r="F43" t="s">
-        <v>10</v>
-      </c>
-      <c r="I43" t="s">
-        <v>10</v>
-      </c>
-      <c r="J43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="4">
-        <v>2</v>
-      </c>
-      <c r="I44" t="s">
-        <v>10</v>
-      </c>
-      <c r="J44" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="4">
-        <v>2</v>
-      </c>
-      <c r="I45" t="s">
-        <v>10</v>
-      </c>
-      <c r="J45" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="4">
-        <v>2</v>
-      </c>
-      <c r="G46" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46" t="s">
-        <v>10</v>
-      </c>
-      <c r="J46" t="s">
-        <v>10</v>
-      </c>
-      <c r="K46" t="s">
-        <v>10</v>
-      </c>
-      <c r="L46" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="E56" s="4">
+        <v>2</v>
+      </c>
+      <c r="F56" t="s">
+        <v>10</v>
+      </c>
+      <c r="I56" t="s">
+        <v>10</v>
+      </c>
+      <c r="J56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="4">
-        <v>2</v>
-      </c>
-      <c r="G47" t="s">
-        <v>10</v>
-      </c>
-      <c r="I47" t="s">
-        <v>10</v>
-      </c>
-      <c r="J47" t="s">
-        <v>10</v>
-      </c>
-      <c r="K47" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" t="s">
-        <v>99</v>
-      </c>
-      <c r="D48" t="s">
-        <v>88</v>
-      </c>
-      <c r="E48" s="4">
-        <v>2</v>
-      </c>
-      <c r="G48" t="s">
-        <v>10</v>
-      </c>
-      <c r="I48" t="s">
-        <v>10</v>
-      </c>
-      <c r="J48" t="s">
-        <v>10</v>
-      </c>
-      <c r="K48" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B49" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="4">
-        <v>2</v>
-      </c>
-      <c r="G49" t="s">
-        <v>10</v>
-      </c>
-      <c r="I49" t="s">
-        <v>10</v>
-      </c>
-      <c r="J49" t="s">
-        <v>10</v>
-      </c>
-      <c r="L49" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="4">
-        <v>2</v>
-      </c>
-      <c r="I50" t="s">
-        <v>90</v>
-      </c>
-      <c r="J50" t="s">
-        <v>19</v>
-      </c>
-      <c r="L50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="4">
-        <v>2</v>
-      </c>
-      <c r="I51" t="s">
-        <v>10</v>
-      </c>
-      <c r="J51" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="4">
-        <v>2</v>
-      </c>
-      <c r="I52" t="s">
-        <v>10</v>
-      </c>
-      <c r="J52" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="4">
-        <v>2</v>
-      </c>
-      <c r="I53" t="s">
-        <v>10</v>
-      </c>
-      <c r="J53" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B54" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="4">
-        <v>2</v>
-      </c>
-      <c r="F54" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" t="s">
-        <v>10</v>
-      </c>
-      <c r="I54" t="s">
-        <v>10</v>
-      </c>
-      <c r="J54" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B55" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="4">
-        <v>2</v>
-      </c>
-      <c r="F55" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" t="s">
-        <v>10</v>
-      </c>
-      <c r="I55" t="s">
-        <v>10</v>
-      </c>
-      <c r="J55" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B56" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="4">
-        <v>2</v>
-      </c>
-      <c r="I56" t="s">
-        <v>10</v>
-      </c>
-      <c r="J56" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="E57" s="4">
+        <v>2</v>
+      </c>
+      <c r="F57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
+        <v>10</v>
+      </c>
+      <c r="I57" t="s">
+        <v>10</v>
+      </c>
+      <c r="J57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B57" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="4">
-        <v>2</v>
-      </c>
-      <c r="G57" t="s">
-        <v>10</v>
-      </c>
-      <c r="I57" t="s">
-        <v>10</v>
-      </c>
-      <c r="J57" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>21</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
@@ -1976,23 +2003,29 @@
       <c r="E58" s="4">
         <v>2</v>
       </c>
+      <c r="G58" t="s">
+        <v>10</v>
+      </c>
       <c r="I58" t="s">
         <v>10</v>
       </c>
       <c r="J58" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E59" s="5">
         <v>3</v>
       </c>
+      <c r="F59" t="s">
+        <v>10</v>
+      </c>
       <c r="G59" t="s">
         <v>10</v>
       </c>
@@ -2003,12 +2036,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B60" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E60" s="5">
         <v>3</v>
@@ -2020,12 +2053,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="E61" s="5">
         <v>3</v>
@@ -2037,12 +2070,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E62" s="5">
         <v>3</v>
@@ -2057,12 +2090,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="E63" s="5">
         <v>3</v>
@@ -2074,12 +2107,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E64" s="5">
         <v>3</v>
@@ -2091,22 +2124,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E65" s="5">
         <v>3</v>
       </c>
-      <c r="F65" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" t="s">
-        <v>10</v>
-      </c>
       <c r="I65" t="s">
         <v>90</v>
       </c>
@@ -2114,9 +2141,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B66" t="s">
         <v>13</v>
@@ -2124,6 +2151,9 @@
       <c r="E66" s="5">
         <v>3</v>
       </c>
+      <c r="F66" t="s">
+        <v>10</v>
+      </c>
       <c r="G66" t="s">
         <v>10</v>
       </c>
@@ -2134,12 +2164,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B67" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E67" s="5">
         <v>3</v>
@@ -2151,36 +2181,39 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>53</v>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B68" t="s">
-        <v>89</v>
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>97</v>
       </c>
       <c r="E68" s="5">
         <v>3</v>
       </c>
+      <c r="F68" t="s">
+        <v>10</v>
+      </c>
       <c r="I68" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J68" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E69" s="5">
         <v>3</v>
       </c>
-      <c r="F69" t="s">
-        <v>10</v>
-      </c>
       <c r="G69" t="s">
         <v>10</v>
       </c>
@@ -2191,16 +2224,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E70" s="5">
         <v>3</v>
       </c>
+      <c r="G70" t="s">
+        <v>10</v>
+      </c>
       <c r="I70" t="s">
         <v>90</v>
       </c>
@@ -2208,12 +2244,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E71" s="5">
         <v>3</v>
@@ -2225,19 +2261,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E72" s="5">
         <v>3</v>
       </c>
-      <c r="F72" t="s">
-        <v>10</v>
-      </c>
       <c r="I72" t="s">
         <v>90</v>
       </c>
@@ -2245,7 +2278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -2266,38 +2299,84 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L73">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="Yes"/>
-      </filters>
+  <autoFilter ref="A1:M73">
+    <filterColumn colId="12">
+      <filters blank="1"/>
     </filterColumn>
-    <filterColumn colId="9">
-      <filters>
-        <filter val="Yes"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="A2:L58">
-      <sortCondition ref="E1:E73"/>
-    </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="A62" r:id="rId1" display=" Remove Invalid Parentheses"/>
-    <hyperlink ref="A72" r:id="rId2" display=" Merge k Sorted Lists"/>
-    <hyperlink ref="A65" r:id="rId3" display=" Read N Characters Given Read4 II - Call multiple times"/>
-    <hyperlink ref="A69" r:id="rId4" display=" Integer to English Words"/>
-    <hyperlink ref="A60" r:id="rId5" display=" Valid Number"/>
-    <hyperlink ref="A59" r:id="rId6" display=" Trapping Rain Water"/>
-    <hyperlink ref="A63" r:id="rId7" display=" Wildcard Matching"/>
-    <hyperlink ref="A61" r:id="rId8" display=" Regular Expression Matching"/>
-    <hyperlink ref="A68" r:id="rId9" display=" Minimum Window Subsequence"/>
-    <hyperlink ref="A67" r:id="rId10" display=" Maximum Sum of 3 Non-Overlapping Subarrays"/>
-    <hyperlink ref="A66" r:id="rId11" display=" Serialize and Deserialize Binary Tree"/>
-    <hyperlink ref="A64" r:id="rId12" display=" LRU Cache"/>
-    <hyperlink ref="A70" r:id="rId13" display=" Minimum Window Substring"/>
-    <hyperlink ref="A71" r:id="rId14" display=" Palindrome Pairs"/>
+    <hyperlink ref="A62" r:id="rId1" display=" Merge k Sorted Lists"/>
+    <hyperlink ref="A66" r:id="rId2" display=" Read N Characters Given Read4 II - Call multiple times"/>
+    <hyperlink ref="A59" r:id="rId3" display=" Integer to English Words"/>
+    <hyperlink ref="A71" r:id="rId4" display=" Valid Number"/>
+    <hyperlink ref="A70" r:id="rId5" display=" Trapping Rain Water"/>
+    <hyperlink ref="A72" r:id="rId6" display=" Wildcard Matching"/>
+    <hyperlink ref="A67" r:id="rId7" display=" Regular Expression Matching"/>
+    <hyperlink ref="A63" r:id="rId8" display=" Minimum Window Subsequence"/>
+    <hyperlink ref="A61" r:id="rId9" display=" Maximum Sum of 3 Non-Overlapping Subarrays"/>
+    <hyperlink ref="A69" r:id="rId10" display=" Serialize and Deserialize Binary Tree"/>
+    <hyperlink ref="A60" r:id="rId11" display=" LRU Cache"/>
+    <hyperlink ref="A64" r:id="rId12" display=" Minimum Window Substring"/>
+    <hyperlink ref="A65" r:id="rId13" display=" Palindrome Pairs"/>
+    <hyperlink ref="A2" r:id="rId14"/>
+    <hyperlink ref="A4" r:id="rId15"/>
+    <hyperlink ref="A5" r:id="rId16"/>
+    <hyperlink ref="A30" r:id="rId17"/>
+    <hyperlink ref="A3" r:id="rId18"/>
+    <hyperlink ref="A6" r:id="rId19"/>
+    <hyperlink ref="A7" r:id="rId20"/>
+    <hyperlink ref="A8" r:id="rId21"/>
+    <hyperlink ref="A9" r:id="rId22"/>
+    <hyperlink ref="A10" r:id="rId23"/>
+    <hyperlink ref="A11" r:id="rId24"/>
+    <hyperlink ref="A12" r:id="rId25"/>
+    <hyperlink ref="A13" r:id="rId26"/>
+    <hyperlink ref="A14" r:id="rId27"/>
+    <hyperlink ref="A15" r:id="rId28"/>
+    <hyperlink ref="A16" r:id="rId29"/>
+    <hyperlink ref="A17" r:id="rId30"/>
+    <hyperlink ref="A18" r:id="rId31"/>
+    <hyperlink ref="A19" r:id="rId32"/>
+    <hyperlink ref="A20" r:id="rId33"/>
+    <hyperlink ref="A21" r:id="rId34"/>
+    <hyperlink ref="A22" r:id="rId35"/>
+    <hyperlink ref="A23" r:id="rId36"/>
+    <hyperlink ref="A24" r:id="rId37"/>
+    <hyperlink ref="A25" r:id="rId38"/>
+    <hyperlink ref="A26" r:id="rId39"/>
+    <hyperlink ref="A27" r:id="rId40"/>
+    <hyperlink ref="A28" r:id="rId41"/>
+    <hyperlink ref="A29" r:id="rId42"/>
+    <hyperlink ref="A31" r:id="rId43"/>
+    <hyperlink ref="A32" r:id="rId44"/>
+    <hyperlink ref="A33" r:id="rId45"/>
+    <hyperlink ref="A34" r:id="rId46"/>
+    <hyperlink ref="A35" r:id="rId47"/>
+    <hyperlink ref="A36" r:id="rId48"/>
+    <hyperlink ref="A37" r:id="rId49"/>
+    <hyperlink ref="A38" r:id="rId50"/>
+    <hyperlink ref="A39" r:id="rId51"/>
+    <hyperlink ref="A40" r:id="rId52"/>
+    <hyperlink ref="A41" r:id="rId53"/>
+    <hyperlink ref="A42" r:id="rId54"/>
+    <hyperlink ref="A43" r:id="rId55"/>
+    <hyperlink ref="A44" r:id="rId56"/>
+    <hyperlink ref="A45" r:id="rId57"/>
+    <hyperlink ref="A46" r:id="rId58"/>
+    <hyperlink ref="A47" r:id="rId59"/>
+    <hyperlink ref="A48" r:id="rId60"/>
+    <hyperlink ref="A49" r:id="rId61"/>
+    <hyperlink ref="A50" r:id="rId62"/>
+    <hyperlink ref="A51" r:id="rId63"/>
+    <hyperlink ref="A52" r:id="rId64"/>
+    <hyperlink ref="A53" r:id="rId65"/>
+    <hyperlink ref="A55" r:id="rId66"/>
+    <hyperlink ref="A56" r:id="rId67"/>
+    <hyperlink ref="A57" r:id="rId68"/>
+    <hyperlink ref="A58" r:id="rId69"/>
+    <hyperlink ref="A68" r:id="rId70"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId71"/>
 </worksheet>
 </file>